--- a/biology/Écologie/Corridor_biologique_méso-américain/Corridor_biologique_méso-américain.xlsx
+++ b/biology/Écologie/Corridor_biologique_méso-américain/Corridor_biologique_méso-américain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corridor_biologique_m%C3%A9so-am%C3%A9ricain</t>
+          <t>Corridor_biologique_méso-américain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Couloir biologique méso-américain ou Corridor biologique méso-américain (de l'anglais, Mesoamerican Biological Corridor, MBC ; espagnol, Corredor Biológico Mesoamericano, CBM) est un vaste corridor biologique qui en Mésoamérique, englobait le sud-ouest du Mexique et la plupart des pays d'Amérique centrale, reliant plusieurs parcs nationaux.
 Ce corridor est encore fonctionnel pour les oiseaux et quelques espèces d'insectes, mais le Canal de Panama (en 1914) a physiquement et transversalement coupé les derniers 77 km de l'isthme de Panama qui reliaient l'Amérique du Nord à l'Amérique du Sud depuis plus de 31 millions d'années. Ce canal a littéralement coupé un continent (l'Amérique) en deux, interrompant brutalement ce que les biologistes ont nommé le grand échange interaméricain qui a permis une lente diversification et un enrichissement de la faune d'Amérique du Nord et du sud. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corridor_biologique_m%C3%A9so-am%C3%A9ricain</t>
+          <t>Corridor_biologique_méso-américain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire du projet de « Couloir biologique méso-américain »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce projet fut officiellement lancé en 1998, avec comme objectif premier la sauvegarde de 106 espèces menacées ou en  danger critique d'extinction.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Corridor_biologique_m%C3%A9so-am%C3%A9ricain</t>
+          <t>Corridor_biologique_méso-américain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Principes et objectifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le projet vise à raccorder plusieurs parcs nationaux, zones naturelles des pays concernés (parcs publics, refuges et terrains privés encore caractérisés par une forte naturalité…). 
 Il aurait comme première origine un plan antérieur dit Paseo Pantera (Chemin des Panthères) proposé dans les années 1990.
